--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,16 +34,100 @@
     <t>2025-07-25 17:18:28</t>
   </si>
   <si>
+    <t>2025-07-25 11:56:53</t>
+  </si>
+  <si>
+    <t>2025-07-25 11:56:58</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:49:13</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:50:17</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:51:16</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:09:41</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:07</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:06:39</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:07:25</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:24:37</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:18:47</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:23:05</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:24:51</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:53:04</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0800LCL0050</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0808LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0628LCL0011</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0072</t>
+  </si>
+  <si>
+    <t>CMM0644LCL0040</t>
+  </si>
+  <si>
+    <t>CMM0838FDF0004</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: AG Organica Pvt ltd</t>
+  </si>
+  <si>
+    <t>Origin: 421601, Thane, Thane, Maharashtra, India; Shipment Scope: Door-to-Door; Entity: Karacious Personal Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: EVEREST INDIA EXPORT</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: THE GIFT INC</t>
+  </si>
+  <si>
+    <t>Origin: 301019, RIICO Industrial Area, Alwar, Rajasthan, India; Shipment Scope: Door-to-Door; Entity: GRANDPITSTOP PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: 201306, Tyy, Gautam Buddha Nagar, Uttar Pradesh, India; Shipment Scope: Door-to-Door; Entity: M/S MADE BY INDIA</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: RAMANTA HOME</t>
   </si>
 </sst>
 </file>
@@ -401,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +510,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,13 +524,209 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -76,6 +76,45 @@
     <t>2025-08-04 06:53:04</t>
   </si>
   <si>
+    <t>2025-08-05 08:51:06</t>
+  </si>
+  <si>
+    <t>2025-08-05 11:39:17</t>
+  </si>
+  <si>
+    <t>2025-08-05 12:50:01</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:38:03</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:06</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:06:12</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:07:07</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:07:14</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:04</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:18:54</t>
+  </si>
+  <si>
+    <t>2025-08-05 17:29:40</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:11:37</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:13:55</t>
+  </si>
+  <si>
     <t>CMM0246LCL0040</t>
   </si>
   <si>
@@ -103,9 +142,18 @@
     <t>CMM0838FDF0004</t>
   </si>
   <si>
+    <t>CMM0246LCL004</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0041</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
   </si>
   <si>
@@ -128,6 +176,12 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: RAMANTA HOME</t>
+  </si>
+  <si>
+    <t>Quote document not found in MongoDB.</t>
+  </si>
+  <si>
+    <t>Origin: 583229, Koppal, Koppal, Karnataka, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
   </si>
 </sst>
 </file>
@@ -485,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -524,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -538,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -552,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -566,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -580,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -594,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -608,13 +662,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -622,13 +676,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -636,13 +690,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -650,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -664,13 +718,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -678,13 +732,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -692,13 +746,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -706,13 +760,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -720,13 +774,195 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,13 +31,28 @@
     <t>2025-08-06 16:48:13</t>
   </si>
   <si>
+    <t>2025-08-06 11:24:18</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:05</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:42:29</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0575LCL0025</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: LIMRA DESIGNS PRIVATE LIMITED</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +435,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Timestamp</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>2025-08-06 11:42:29</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:37:10</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:59:09</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +483,41 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Timestamp</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>2025-08-06 18:59:09</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:47:44</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,12 +514,26 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,19 +49,73 @@
     <t>2025-08-07 07:47:44</t>
   </si>
   <si>
+    <t>2025-08-07 10:21:22</t>
+  </si>
+  <si>
+    <t>2025-08-07 10:23:46</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:27:45</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:49:40</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:50:09</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:31:48</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:31:53</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:32:01</t>
+  </si>
+  <si>
+    <t>2025-08-07 15:32:07</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
     <t>CMM0575LCL0025</t>
   </si>
   <si>
+    <t>CMM0575LCL0026</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0040</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0041</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0042</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: LIMRA DESIGNS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: 583229, Koppal, Koppal, Karnataka, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Quote document not found in MongoDB.</t>
   </si>
 </sst>
 </file>
@@ -419,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +582,139 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>2025-08-07 15:32:07</t>
+  </si>
+  <si>
+    <t>2025-08-08 10:28:33</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:14:13</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:14:58</t>
+  </si>
+  <si>
+    <t>2025-08-08 11:23:05</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
@@ -473,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,13 +510,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,13 +524,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,13 +538,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,13 +552,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,13 +580,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,13 +622,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,13 +636,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -638,13 +650,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -652,13 +664,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -666,13 +678,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -680,13 +692,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -694,13 +706,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -708,13 +720,69 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Timestamp</t>
   </si>
@@ -88,6 +88,18 @@
     <t>2025-08-08 11:23:05</t>
   </si>
   <si>
+    <t>2025-08-08 12:51:22</t>
+  </si>
+  <si>
+    <t>2025-08-08 12:55:38</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:10:29</t>
+  </si>
+  <si>
+    <t>2025-08-08 13:18:27</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
@@ -109,6 +121,9 @@
     <t>CMM0246LCL0043</t>
   </si>
   <si>
+    <t>CMM0598LCL0010</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -128,6 +143,9 @@
   </si>
   <si>
     <t>Quote document not found in MongoDB.</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: M/S OVERSEAS NAUTICALS EXIM</t>
   </si>
 </sst>
 </file>
@@ -485,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -524,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -538,13 +556,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -552,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -566,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -580,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -594,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -608,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -622,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -636,13 +654,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -650,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -664,13 +682,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -678,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -692,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -706,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -720,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -734,13 +752,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -748,13 +766,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -762,13 +780,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -776,13 +794,69 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>Timestamp</t>
   </si>
@@ -100,6 +100,24 @@
     <t>2025-08-08 13:18:27</t>
   </si>
   <si>
+    <t>2025-08-08 07:50:56</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:51:54</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:52:26</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:55:35</t>
+  </si>
+  <si>
+    <t>2025-08-08 07:59:41</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:02:51</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
@@ -124,6 +142,15 @@
     <t>CMM0598LCL0010</t>
   </si>
   <si>
+    <t>CMM0077LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0054</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -146,6 +173,12 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: M/S OVERSEAS NAUTICALS EXIM</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: HOMEZON INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Origin: 421601, Thane, Thane, Maharashtra, India; Shipment Scope: Door-to-Door; Entity: Karacious Personal Care Pvt Ltd</t>
   </si>
 </sst>
 </file>
@@ -503,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -542,13 +575,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -556,13 +589,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -584,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -598,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -612,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -626,13 +659,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -640,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -654,13 +687,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -668,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -682,13 +715,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -696,13 +729,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -710,13 +743,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -724,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -738,13 +771,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -752,13 +785,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -766,13 +799,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -780,13 +813,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -794,13 +827,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -808,13 +841,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -822,13 +855,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -836,13 +869,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -850,13 +883,97 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>Timestamp</t>
   </si>
@@ -118,6 +118,27 @@
     <t>2025-08-08 08:02:51</t>
   </si>
   <si>
+    <t>2025-08-08 08:09:51</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:12:10</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:15:42</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:16:24</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:20:56</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:22:43</t>
+  </si>
+  <si>
+    <t>2025-08-08 08:23:01</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
@@ -151,6 +172,18 @@
     <t>CMM0804LCL0054</t>
   </si>
   <si>
+    <t>CMM0657LCL0098</t>
+  </si>
+  <si>
+    <t>CMM0050LCL0065</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0096</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0055</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -179,6 +212,12 @@
   </si>
   <si>
     <t>Origin: 421601, Thane, Thane, Maharashtra, India; Shipment Scope: Door-to-Door; Entity: Karacious Personal Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: HOMEMONDE LIFESTYLE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: weave World Fashion</t>
   </si>
 </sst>
 </file>
@@ -536,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -575,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -589,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -603,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -617,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -631,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -645,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -659,13 +698,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -673,13 +712,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -687,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -701,13 +740,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -715,13 +754,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -729,13 +768,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -743,13 +782,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -757,13 +796,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -771,13 +810,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -785,13 +824,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -799,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -813,13 +852,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -827,13 +866,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -841,13 +880,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -855,13 +894,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -869,13 +908,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -883,13 +922,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -897,13 +936,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -911,13 +950,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -925,13 +964,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -939,13 +978,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -953,13 +992,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -967,13 +1006,111 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
         <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>Timestamp</t>
   </si>
@@ -100,6 +100,24 @@
     <t>2025-08-08 13:18:27</t>
   </si>
   <si>
+    <t>2025-08-08 13:59:15</t>
+  </si>
+  <si>
+    <t>2025-08-08 16:14:47</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:41:30</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:43:40</t>
+  </si>
+  <si>
+    <t>2025-08-09 14:56:53</t>
+  </si>
+  <si>
+    <t>2025-08-09 15:12:32</t>
+  </si>
+  <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
@@ -124,6 +142,12 @@
     <t>CMM0598LCL0010</t>
   </si>
   <si>
+    <t>CMM0804LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0044</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -146,6 +170,12 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: M/S OVERSEAS NAUTICALS EXIM</t>
+  </si>
+  <si>
+    <t>Origin: 421601, Thane, Thane, Maharashtra, India; Shipment Scope: Door-to-Door; Entity: Karacious Personal Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
   </si>
 </sst>
 </file>
@@ -503,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -542,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -556,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -584,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -598,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -612,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -626,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -640,13 +670,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -654,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -668,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -682,13 +712,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -696,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -710,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -724,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -738,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -752,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -766,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -780,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -794,13 +824,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -808,13 +838,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -822,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -836,13 +866,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -850,13 +880,97 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>Timestamp</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2025-08-09 15:12:32</t>
+  </si>
+  <si>
+    <t>2025-08-09 16:23:09</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -572,13 +575,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -586,13 +589,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -600,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -614,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -628,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -642,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -656,13 +659,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -670,13 +673,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -684,13 +687,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -698,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -712,13 +715,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -726,13 +729,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -740,13 +743,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -754,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -768,13 +771,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -782,13 +785,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -796,13 +799,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -810,13 +813,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -824,13 +827,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -838,13 +841,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -852,13 +855,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -866,13 +869,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -880,13 +883,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -894,13 +897,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -908,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -922,13 +925,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -936,13 +939,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -950,13 +953,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -964,13 +967,27 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Timestamp</t>
   </si>
@@ -31,13 +31,28 @@
     <t>2025-08-10 14:19:01</t>
   </si>
   <si>
+    <t>2025-08-11 12:32:57</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:41:52</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:57:18</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
+    <t>CMM0246LCL0039</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +435,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,12 +40,48 @@
     <t>2025-08-11 12:57:18</t>
   </si>
   <si>
+    <t>2025-08-11 13:05:55</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:07:55</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:09:20</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:09:33</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:16:44</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:49:54</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:51:15</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:16</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:57:36</t>
+  </si>
+  <si>
+    <t>2025-08-11 15:02:30</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
     <t>CMM0246LCL0039</t>
   </si>
   <si>
+    <t>CMM0246LCL0045</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0038</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -53,6 +89,9 @@
   </si>
   <si>
     <t>Origin: 110020, Okhla Industrial Estate, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: 583229, Koppal, Koppal, Karnataka, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
   </si>
 </sst>
 </file>
@@ -410,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +516,153 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Timestamp</t>
   </si>
@@ -70,6 +70,21 @@
     <t>2025-08-11 15:02:30</t>
   </si>
   <si>
+    <t>2025-08-12 11:53:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:06:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:51:10</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:55:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:39:39</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>CMM0246LCL0038</t>
   </si>
   <si>
+    <t>CMM0246LCL0046</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -92,6 +110,9 @@
   </si>
   <si>
     <t>Origin: 583229, Koppal, Koppal, Karnataka, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -488,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -502,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -516,13 +537,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -530,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -544,13 +565,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -558,13 +579,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -572,13 +593,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -586,13 +607,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -600,13 +621,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,13 +635,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -628,13 +649,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -642,13 +663,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -656,13 +677,83 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Timestamp</t>
   </si>
@@ -85,6 +85,33 @@
     <t>2025-08-12 13:39:39</t>
   </si>
   <si>
+    <t>2025-08-12 13:52:53</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:22:53</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:43:23</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:44:53</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:45:16</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:57:42</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:57:53</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:58:03</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:05:22</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -100,6 +127,21 @@
     <t>CMM0246LCL0046</t>
   </si>
   <si>
+    <t>CMM0246LCL0048</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0037</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0047</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0049</t>
+  </si>
+  <si>
+    <t>CMM0613LCL0008</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -113,6 +155,12 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: 303905, Jaipur, Jaipur, Rajasthan, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: BRIGHT HOME</t>
   </si>
 </sst>
 </file>
@@ -470,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -509,13 +557,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -523,13 +571,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -537,13 +585,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -551,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -565,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -579,13 +627,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -593,13 +641,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -607,13 +655,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -621,13 +669,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -635,13 +683,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -649,13 +697,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -663,13 +711,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -677,13 +725,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -691,13 +739,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -705,13 +753,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -719,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -733,13 +781,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -747,13 +795,139 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Timestamp</t>
   </si>
@@ -112,6 +112,27 @@
     <t>2025-08-13 08:05:22</t>
   </si>
   <si>
+    <t>2025-08-13 02:44:58</t>
+  </si>
+  <si>
+    <t>2025-08-13 02:59:06</t>
+  </si>
+  <si>
+    <t>2025-08-13 02:59:34</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:01:49</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:14:00</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:14:30</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:05</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -142,9 +163,15 @@
     <t>CMM0613LCL0008</t>
   </si>
   <si>
+    <t>CMM0613LCL0048</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
   </si>
   <si>
@@ -161,6 +188,9 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: BRIGHT HOME</t>
+  </si>
+  <si>
+    <t>Quote document not found in MongoDB.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -557,13 +587,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -571,13 +601,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -585,13 +615,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -599,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -613,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -627,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -641,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -655,13 +685,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -669,13 +699,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -683,13 +713,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -697,13 +727,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -711,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -725,13 +755,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -739,13 +769,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -753,13 +783,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -767,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -781,13 +811,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -795,13 +825,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -809,13 +839,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -823,13 +853,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -837,13 +867,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -851,13 +881,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -865,13 +895,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -879,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -893,13 +923,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -907,13 +937,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -921,13 +951,111 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Timestamp</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>2025-08-13 03:17:05</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:05</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:11</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:14</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:34:08</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:38:49</t>
   </si>
   <si>
     <t>CMM0246LCL0044</t>
@@ -548,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -587,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -601,13 +616,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -615,13 +630,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -629,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -643,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -657,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -671,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -685,13 +700,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -699,13 +714,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -713,13 +728,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -727,13 +742,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -741,13 +756,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -755,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -769,13 +784,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -783,13 +798,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -797,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -811,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -825,13 +840,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -839,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -853,13 +868,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -867,13 +882,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -881,13 +896,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -895,13 +910,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -909,13 +924,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -923,13 +938,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -937,13 +952,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -951,13 +966,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -965,13 +980,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -979,13 +994,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -993,13 +1008,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1007,13 +1022,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1021,13 +1036,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1035,13 +1050,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1049,13 +1064,83 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -46,6 +46,51 @@
     <t>2025-08-14 15:37:51</t>
   </si>
   <si>
+    <t>2025-08-14 10:24:54</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:24:58</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:25:02</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:25:05</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:26:55</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:18:25</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:23</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:11:59</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:28:58</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:37:43</t>
+  </si>
+  <si>
+    <t>2025-08-18 05:38:37</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:05:05</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:25:19</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:25:26</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:25:29</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -61,6 +106,39 @@
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0041</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0042</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0487LCL0013</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
+    <t>CMM080</t>
+  </si>
+  <si>
+    <t>CMM0800LCL</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -77,6 +155,18 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: 583229, Koppal, Koppal, Karnataka, India; Shipment Scope: Door-to-Door; Entity: Arora Foods</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: TEAXPRESS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Port; Entity: J B OVERSEAS</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: AG Organica Pvt ltd</t>
   </si>
 </sst>
 </file>
@@ -434,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -473,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -487,13 +577,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -501,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -515,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -529,13 +619,223 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -91,6 +91,18 @@
     <t>2025-08-18 06:25:29</t>
   </si>
   <si>
+    <t>2025-08-18 06:51:35</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:55:41</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:02:44</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:43</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -137,6 +149,9 @@
   </si>
   <si>
     <t>CMM0800LCL</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0069</t>
   </si>
   <si>
     <t>Success</t>
@@ -524,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -563,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -577,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -591,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -605,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -619,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -633,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -647,13 +662,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -661,13 +676,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -675,13 +690,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -689,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -703,13 +718,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -717,13 +732,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -731,13 +746,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -745,13 +760,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -759,13 +774,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -773,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -787,13 +802,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -801,13 +816,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -815,13 +830,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -829,13 +844,69 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Timestamp</t>
   </si>
@@ -103,6 +103,66 @@
     <t>2025-08-18 07:03:43</t>
   </si>
   <si>
+    <t>2025-08-18 07:48:22</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:48:48</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:16</t>
+  </si>
+  <si>
+    <t>2025-08-18 09:31:54</t>
+  </si>
+  <si>
+    <t>2025-08-18 10:58:02</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:21</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:48:16</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:48:38</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:48:44</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:46:31</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:39</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:49:50</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:15:36</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:36:23</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:12</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:48:41</t>
+  </si>
+  <si>
+    <t>2025-08-19 11:24:27</t>
+  </si>
+  <si>
+    <t>2025-08-19 11:33:26</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:07:12</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:08:35</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -154,6 +214,42 @@
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
+    <t>CEN0447LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0642LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CEN0479LCL0069</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0069</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0040</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -182,6 +278,24 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: AG Organica Pvt ltd</t>
+  </si>
+  <si>
+    <t>Origin: 201305, Phase-2, Gautam Buddh Nagar, Uttar Pradesh, India; Shipment Scope: Door-to-Door; Entity: VAHDAM TEAS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Rajasthali Handicrafts</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: RV World Trade</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: KD Sports &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: THE JUMBLE WORDS</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: ADORNTEX EXPORT PRIVATE LIMITED</t>
   </si>
 </sst>
 </file>
@@ -539,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,13 +678,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -578,13 +692,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -592,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -606,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -620,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -634,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -648,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -662,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -676,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -690,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -704,13 +818,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -718,13 +832,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -732,13 +846,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -746,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -760,13 +874,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -774,13 +888,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -788,13 +902,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -802,13 +916,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -816,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -830,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -844,13 +958,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -858,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -872,13 +986,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -886,13 +1000,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -900,13 +1014,293 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
   <si>
     <t>Timestamp</t>
   </si>
@@ -163,6 +163,84 @@
     <t>2025-08-19 12:08:35</t>
   </si>
   <si>
+    <t>2025-08-20 07:27:07</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:00:58</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:01:03</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:01:52</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:02:09</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:02:57</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:05:35</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:55:24</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:43:59</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:45:52</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:48:31</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:50:06</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:28:49</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:32:26</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:33:01</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:30:47</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:06</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:33:56</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:09</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:47:44</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:51:43</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:09:37</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:49:59</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:21:45</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:41:25</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -250,6 +328,39 @@
     <t>CMM0608LCL0040</t>
   </si>
   <si>
+    <t xml:space="preserve"> CMM0827LCL0042</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -296,6 +407,18 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: ADORNTEX EXPORT PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: SEKAWATI IMPEX</t>
+  </si>
+  <si>
+    <t>Origin: 421601, Thane, Thane, Maharashtra, India; Shipment Scope: Door-to-Door; Entity: Karacious Personal Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: HOMEZON INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: HOMEMONDE LIFESTYLE PRIVATE LIMITED</t>
   </si>
 </sst>
 </file>
@@ -653,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -692,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -706,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -720,13 +843,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -734,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -748,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -762,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -776,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -790,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -804,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -818,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -832,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -846,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -860,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -874,13 +997,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -888,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -902,13 +1025,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -916,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -930,13 +1053,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -944,13 +1067,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -958,13 +1081,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -972,13 +1095,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -986,13 +1109,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1000,13 +1123,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1014,13 +1137,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1028,13 +1151,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1042,13 +1165,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1056,13 +1179,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1070,13 +1193,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1084,13 +1207,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1098,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1112,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1126,13 +1249,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1140,13 +1263,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1154,13 +1277,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1168,13 +1291,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1182,13 +1305,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1196,13 +1319,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1210,13 +1333,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1224,13 +1347,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1238,13 +1361,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1252,13 +1375,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1266,13 +1389,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1280,13 +1403,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1294,13 +1417,391 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
   <si>
     <t>Timestamp</t>
   </si>
@@ -241,6 +241,18 @@
     <t>2025-08-26 05:41:25</t>
   </si>
   <si>
+    <t>2025-08-26 06:01:22</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:57:18</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:58:45</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:35</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -361,6 +373,15 @@
     <t>CMM0657LCL0117</t>
   </si>
   <si>
+    <t>CMM0910LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -419,6 +440,15 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: HOMEMONDE LIFESTYLE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: 313027, Wadiya Colony, Udaipur, Rajasthan, India; Shipment Scope: Door-to-Door; Entity: Jodaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Jodaro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Sudhan International </t>
   </si>
 </sst>
 </file>
@@ -776,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,13 +831,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -815,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -829,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -843,13 +873,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -857,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -871,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -885,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -899,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -913,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -927,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -941,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -955,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -969,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -983,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -997,13 +1027,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1011,13 +1041,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1025,13 +1055,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1039,13 +1069,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1053,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1067,13 +1097,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1081,13 +1111,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1095,13 +1125,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1109,13 +1139,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1123,13 +1153,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1137,13 +1167,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1151,13 +1181,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1165,13 +1195,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1179,13 +1209,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1193,13 +1223,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1207,13 +1237,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1221,13 +1251,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1235,13 +1265,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1249,13 +1279,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1263,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1277,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1291,13 +1321,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1305,13 +1335,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1319,13 +1349,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1333,13 +1363,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1347,13 +1377,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1361,13 +1391,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1375,13 +1405,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1389,13 +1419,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1403,13 +1433,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1417,13 +1447,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1431,13 +1461,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1445,13 +1475,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1459,13 +1489,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1473,13 +1503,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1487,13 +1517,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1501,13 +1531,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1515,13 +1545,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1529,13 +1559,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1543,13 +1573,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1557,13 +1587,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1571,13 +1601,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1585,13 +1615,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1599,13 +1629,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1613,13 +1643,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1627,13 +1657,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1641,13 +1671,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1655,13 +1685,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1669,13 +1699,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1683,13 +1713,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1697,13 +1727,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1711,13 +1741,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1725,13 +1755,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1739,13 +1769,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1753,13 +1783,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1767,13 +1797,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1781,13 +1811,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1795,13 +1825,69 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
   <si>
     <t>Timestamp</t>
   </si>
@@ -253,6 +253,39 @@
     <t>2025-08-28 09:53:35</t>
   </si>
   <si>
+    <t>2025-08-28 12:07:07</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:17</t>
+  </si>
+  <si>
+    <t>2025-08-30 10:59:36</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:00:18</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:01:35</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:14:43</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:10:48</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:15:28</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:05</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:22</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:44</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -382,6 +415,27 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
+    <t>CMM0919LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0875LCL0003</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0044</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -449,6 +503,24 @@
   </si>
   <si>
     <t xml:space="preserve">Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Sudhan International </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Ishrak global </t>
+  </si>
+  <si>
+    <t>Origin: 244001, LAKRI, Moradabad, Uttar Pradesh, India; Shipment Scope: Door-to-Door; Entity: Spruce Exports</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Spruce Exports</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: DECORZA</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: SQUARE N CIRCLE</t>
+  </si>
+  <si>
+    <t>Origin: 110006, Old Delhi, Central Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: MISHTHI EXPORT</t>
   </si>
 </sst>
 </file>
@@ -806,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,13 +903,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -845,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -859,13 +931,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -873,13 +945,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -887,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,13 +973,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -915,13 +987,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -929,13 +1001,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -943,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -957,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -971,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -985,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -999,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1013,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1027,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1041,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1055,13 +1127,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1069,13 +1141,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1083,13 +1155,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1097,13 +1169,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1111,13 +1183,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1125,13 +1197,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1139,13 +1211,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1153,13 +1225,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1167,13 +1239,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1181,13 +1253,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1195,13 +1267,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1209,13 +1281,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1223,13 +1295,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1237,13 +1309,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1251,13 +1323,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1265,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1279,13 +1351,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1293,13 +1365,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1307,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1321,13 +1393,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1335,13 +1407,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1349,13 +1421,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1363,13 +1435,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1377,13 +1449,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1391,13 +1463,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1405,13 +1477,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1419,13 +1491,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1433,13 +1505,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1447,13 +1519,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1461,13 +1533,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1475,13 +1547,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1489,13 +1561,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1503,13 +1575,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1517,13 +1589,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1531,13 +1603,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1545,13 +1617,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1559,13 +1631,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1573,13 +1645,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1587,13 +1659,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1601,13 +1673,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1615,13 +1687,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1629,13 +1701,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1643,13 +1715,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1657,13 +1729,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1671,13 +1743,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1685,13 +1757,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1699,13 +1771,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1713,13 +1785,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1727,13 +1799,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1741,13 +1813,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1755,13 +1827,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1769,13 +1841,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1783,13 +1855,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1797,13 +1869,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1811,13 +1883,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1825,13 +1897,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1839,13 +1911,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1853,13 +1925,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1867,13 +1939,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1881,13 +1953,167 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="225">
   <si>
     <t>Timestamp</t>
   </si>
@@ -286,6 +286,84 @@
     <t>2025-09-02 07:16:44</t>
   </si>
   <si>
+    <t>2025-09-03 08:35:48</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:51:10</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:08:59</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:30</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:42:23</t>
+  </si>
+  <si>
+    <t>2025-09-04 10:17:19</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:14:35</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:09</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:37:39</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:15</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:05:43</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:38:26</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:34:15</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:34:46</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:35:19</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:06:48</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:07:24</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:08:25</t>
+  </si>
+  <si>
+    <t>2025-09-10 05:48:14</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:06:52</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:13</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:35</t>
+  </si>
+  <si>
+    <t>2025-09-12 12:50:56</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:01:09</t>
+  </si>
+  <si>
+    <t>2025-09-15 10:12:29</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:53:05</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -436,6 +514,72 @@
     <t>CMM0608LCL0044</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0922LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>2508LCLCMM05470081</t>
+  </si>
+  <si>
+    <t>CMM0547LCL0080</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0840LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0932LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -521,6 +665,30 @@
   </si>
   <si>
     <t>Origin: 110006, Old Delhi, Central Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: MISHTHI EXPORT</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: CONFECT CAKE DECOR PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: 110025, Okhla, South East Delhi, Delhi, India; Shipment Scope: Door-to-Door; Entity: KARVAAA BORDERTECH PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: UDEEP ORGANICS</t>
+  </si>
+  <si>
+    <t>Origin: 301019, RIICO Industrial Area, Khairthal-Tijara, Rajasthan, India; Shipment Scope: Door-to-Door; Entity: GRANDPITSTOP PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Origin: New York, United States (USNYC); Shipment Scope: Port-to-Door; Entity: AG Organica Pvt ltd</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Farmley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Good sleep Bedding </t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: Tripole Gears</t>
   </si>
 </sst>
 </file>
@@ -878,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,13 +1071,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -917,13 +1085,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -931,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -945,13 +1113,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -959,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -973,13 +1141,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -987,13 +1155,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1001,13 +1169,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1015,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1029,13 +1197,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1043,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1057,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1071,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1085,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1099,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1113,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1127,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1141,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1155,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1169,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1183,13 +1351,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1197,13 +1365,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1211,13 +1379,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1225,13 +1393,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1239,13 +1407,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1253,13 +1421,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1267,13 +1435,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1281,13 +1449,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1295,13 +1463,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1309,13 +1477,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1323,13 +1491,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1337,13 +1505,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1351,13 +1519,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1365,13 +1533,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1379,13 +1547,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1393,13 +1561,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1407,13 +1575,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1421,13 +1589,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1435,13 +1603,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1449,13 +1617,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1463,13 +1631,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1477,13 +1645,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1491,13 +1659,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1505,13 +1673,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1519,13 +1687,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1533,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1547,13 +1715,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1561,13 +1729,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1575,13 +1743,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1589,13 +1757,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1603,13 +1771,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1617,13 +1785,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1631,13 +1799,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1645,13 +1813,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1659,13 +1827,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1673,13 +1841,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1687,13 +1855,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1701,13 +1869,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1715,13 +1883,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1729,13 +1897,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1743,13 +1911,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1757,13 +1925,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1771,13 +1939,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1785,13 +1953,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1799,13 +1967,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1813,13 +1981,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1827,13 +1995,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1841,13 +2009,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1855,13 +2023,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1869,13 +2037,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1883,13 +2051,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1897,13 +2065,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1911,13 +2079,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1925,13 +2093,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1939,13 +2107,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1953,13 +2121,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1967,13 +2135,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1981,13 +2149,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1995,13 +2163,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2009,13 +2177,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2023,13 +2191,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2037,13 +2205,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2051,13 +2219,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2065,13 +2233,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2079,13 +2247,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2093,13 +2261,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2107,13 +2275,391 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
   <si>
     <t>Timestamp</t>
   </si>
@@ -364,6 +364,33 @@
     <t>2025-09-18 02:53:05</t>
   </si>
   <si>
+    <t>2025-09-18 11:09:15</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:10:25</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:14</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:29:22</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:29:35</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:03</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:31:03</t>
+  </si>
+  <si>
+    <t>2025-09-18 19:59:41</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:02:50</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -580,6 +607,21 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0106LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0016</t>
+  </si>
+  <si>
+    <t>CMM0050LCL0070</t>
+  </si>
+  <si>
+    <t>CMM0050LCL0071</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -689,6 +731,18 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India(INNSA); Shipment Scope: Port-to-Door; Entity: Tripole Gears</t>
+  </si>
+  <si>
+    <t>Origin: 244001, LAKRI, Moradabad, Uttar Pradesh, India; Shipment Scope: Door-to-Door; Entity: DIGNITY PRODUCTS</t>
+  </si>
+  <si>
+    <t>Origin: ICD Tughlakabad, India(INTKD); Shipment Scope: Port-to-Door; Entity: RV World Trade</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: weave World Fashion</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Ripaz</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,13 +1125,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1099,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1113,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1127,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1141,13 +1195,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1155,13 +1209,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1169,13 +1223,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1183,13 +1237,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1197,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1211,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1225,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1239,13 +1293,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1253,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1267,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1281,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1295,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1309,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1323,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1337,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1351,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1365,13 +1419,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1379,13 +1433,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1393,13 +1447,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1407,13 +1461,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1421,13 +1475,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1435,13 +1489,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1449,13 +1503,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1463,13 +1517,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1477,13 +1531,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1491,13 +1545,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1505,13 +1559,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1519,13 +1573,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1533,13 +1587,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1547,13 +1601,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1561,13 +1615,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1575,13 +1629,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1589,13 +1643,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1603,13 +1657,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1617,13 +1671,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1631,13 +1685,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1645,13 +1699,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1659,13 +1713,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1673,13 +1727,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1687,13 +1741,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1701,13 +1755,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1715,13 +1769,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1729,13 +1783,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1743,13 +1797,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1757,13 +1811,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1771,13 +1825,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1785,13 +1839,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1799,13 +1853,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1813,13 +1867,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1827,13 +1881,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1841,13 +1895,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1855,13 +1909,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1869,13 +1923,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1883,13 +1937,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1897,13 +1951,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1911,13 +1965,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1925,13 +1979,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1939,13 +1993,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1953,13 +2007,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1967,13 +2021,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1981,13 +2035,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1995,13 +2049,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2009,13 +2063,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2023,13 +2077,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2037,13 +2091,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2051,13 +2105,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2065,13 +2119,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2079,13 +2133,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2093,13 +2147,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2107,13 +2161,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2121,13 +2175,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2135,13 +2189,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2149,13 +2203,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2163,13 +2217,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2177,13 +2231,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2191,13 +2245,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2205,13 +2259,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2219,13 +2273,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2233,13 +2287,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2247,13 +2301,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2261,13 +2315,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2275,13 +2329,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2289,13 +2343,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2303,13 +2357,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2317,13 +2371,13 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2331,13 +2385,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2345,13 +2399,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2359,13 +2413,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2373,13 +2427,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2387,13 +2441,13 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2401,13 +2455,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2415,13 +2469,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2429,13 +2483,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2443,13 +2497,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2457,13 +2511,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2471,13 +2525,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2485,13 +2539,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2499,13 +2553,13 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2513,13 +2567,13 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2527,13 +2581,13 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2541,13 +2595,13 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2555,13 +2609,13 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2569,13 +2623,13 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2583,13 +2637,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2597,13 +2651,13 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2611,13 +2665,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2625,13 +2679,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D113" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2639,13 +2693,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D114" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2653,13 +2707,139 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" t="s">
+        <v>202</v>
+      </c>
+      <c r="D116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" t="s">
+        <v>202</v>
+      </c>
+      <c r="D123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="247">
   <si>
     <t>Timestamp</t>
   </si>
@@ -391,6 +391,12 @@
     <t>2025-09-18 20:02:50</t>
   </si>
   <si>
+    <t>2025-09-19 11:21:06</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:22:38</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -620,6 +626,12 @@
   </si>
   <si>
     <t>CMM0937LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0608LCL0046</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0089</t>
   </si>
   <si>
     <t>Success</t>
@@ -1100,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1139,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1153,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1167,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1181,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1195,13 +1207,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1209,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1223,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1237,13 +1249,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1251,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1265,13 +1277,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1279,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1293,13 +1305,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1307,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1321,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1335,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1349,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1363,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1377,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1391,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1405,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1419,13 +1431,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1433,13 +1445,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1447,13 +1459,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1461,13 +1473,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1475,13 +1487,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1489,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1503,13 +1515,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1517,13 +1529,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1531,13 +1543,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1545,13 +1557,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1559,13 +1571,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1573,13 +1585,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1587,13 +1599,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1601,13 +1613,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1615,13 +1627,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1629,13 +1641,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1643,13 +1655,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1657,13 +1669,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1671,13 +1683,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1685,13 +1697,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1699,13 +1711,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1713,13 +1725,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1727,13 +1739,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1741,13 +1753,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1755,13 +1767,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1769,13 +1781,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1783,13 +1795,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1797,13 +1809,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1811,13 +1823,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1825,13 +1837,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1839,13 +1851,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1853,13 +1865,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1867,13 +1879,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1881,13 +1893,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1895,13 +1907,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1909,13 +1921,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1923,13 +1935,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1937,13 +1949,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1951,13 +1963,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1965,13 +1977,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1979,13 +1991,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1993,13 +2005,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2007,13 +2019,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2021,13 +2033,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2035,13 +2047,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2049,13 +2061,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2063,13 +2075,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2077,13 +2089,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2091,13 +2103,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2105,13 +2117,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2119,13 +2131,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2133,13 +2145,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2147,13 +2159,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2161,13 +2173,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2175,13 +2187,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2189,13 +2201,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2203,13 +2215,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2217,13 +2229,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2231,13 +2243,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2245,13 +2257,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2259,13 +2271,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2273,13 +2285,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2287,13 +2299,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2301,13 +2313,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2315,13 +2327,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2329,13 +2341,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2343,13 +2355,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2357,13 +2369,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2371,13 +2383,13 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2385,13 +2397,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2399,13 +2411,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2413,13 +2425,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2427,13 +2439,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2441,13 +2453,13 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2455,13 +2467,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2469,13 +2481,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2483,13 +2495,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2497,13 +2509,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2511,13 +2523,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2525,13 +2537,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2539,13 +2551,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2553,13 +2565,13 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D104" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2567,13 +2579,13 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2581,13 +2593,13 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2595,13 +2607,13 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2609,13 +2621,13 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2623,13 +2635,13 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2637,13 +2649,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2651,13 +2663,13 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2665,13 +2677,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D112" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2679,13 +2691,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2693,13 +2705,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D114" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2707,13 +2719,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2721,13 +2733,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2735,13 +2747,13 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2749,13 +2761,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2763,13 +2775,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2777,13 +2789,13 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2791,13 +2803,13 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D121" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2805,13 +2817,13 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2819,13 +2831,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2833,13 +2845,41 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D124" t="s">
-        <v>242</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/mongo_datafetch.xlsx
+++ b/Logs/mongo_datafetch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="250">
   <si>
     <t>Timestamp</t>
   </si>
@@ -397,6 +397,9 @@
     <t>2025-09-19 11:22:38</t>
   </si>
   <si>
+    <t>2025-09-25 07:19:11</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -634,6 +637,9 @@
     <t>CMM0800LCL0089</t>
   </si>
   <si>
+    <t>CMM0607LCL0008</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -755,6 +761,9 @@
   </si>
   <si>
     <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: Ripaz</t>
+  </si>
+  <si>
+    <t>Origin: Nhava Sheva, India (INNSA); Shipment Scope: Port-to-Door; Entity: SOLIDUS LIFESCIENCES PRIVATE LIMITED</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,13 +1146,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1151,13 +1160,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1165,13 +1174,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1179,13 +1188,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1193,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1207,13 +1216,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1221,13 +1230,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1235,13 +1244,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,13 +1258,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1263,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1277,13 +1286,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1291,13 +1300,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1305,13 +1314,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1319,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1333,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1347,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1361,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1375,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1389,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1403,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1417,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1431,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1445,13 +1454,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1459,13 +1468,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1473,13 +1482,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1487,13 +1496,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1501,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1515,13 +1524,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1529,13 +1538,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1543,13 +1552,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1557,13 +1566,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1571,13 +1580,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1585,13 +1594,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1599,13 +1608,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1613,13 +1622,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1627,13 +1636,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1641,13 +1650,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1655,13 +1664,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1669,13 +1678,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1683,13 +1692,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1697,13 +1706,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1711,13 +1720,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1725,13 +1734,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1739,13 +1748,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1753,13 +1762,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1767,13 +1776,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1781,13 +1790,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1795,13 +1804,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1809,13 +1818,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1823,13 +1832,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1837,13 +1846,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1851,13 +1860,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1865,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1879,13 +1888,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1893,13 +1902,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1907,13 +1916,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1921,13 +1930,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1935,13 +1944,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1949,13 +1958,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1963,13 +1972,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1977,13 +1986,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1991,13 +2000,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2005,13 +2014,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2019,13 +2028,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2033,13 +2042,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2047,13 +2056,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2061,13 +2070,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2075,13 +2084,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2089,13 +2098,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2103,13 +2112,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2117,13 +2126,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2131,13 +2140,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2145,13 +2154,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2159,13 +2168,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2173,13 +2182,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2187,13 +2196,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2201,13 +2210,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2215,13 +2224,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2229,13 +2238,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2243,13 +2252,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2257,13 +2266,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2271,13 +2280,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2285,13 +2294,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2299,13 +2308,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2313,13 +2322,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2327,13 +2336,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2341,13 +2350,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2355,13 +2364,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2369,13 +2378,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2383,13 +2392,13 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2397,13 +2406,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2411,13 +2420,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2425,13 +2434,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2439,13 +2448,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2453,13 +2462,13 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2467,13 +2476,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2481,13 +2490,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2495,13 +2504,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2509,13 +2518,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2523,13 +2532,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2537,13 +2546,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2551,13 +2560,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2565,13 +2574,13 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2579,13 +2588,13 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2593,13 +2602,13 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2607,13 +2616,13 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2621,13 +2630,13 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2635,13 +2644,13 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2649,13 +2658,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2663,13 +2672,13 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2677,13 +2686,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2691,13 +2700,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2705,13 +2714,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2719,13 +2728,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2733,13 +2742,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2747,13 +2756,13 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2761,13 +2770,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2775,13 +2784,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2789,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2803,13 +2812,13 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D121" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2817,13 +2826,13 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2831,13 +2840,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2845,13 +2854,13 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2859,13 +2868,13 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2873,13 +2882,27 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
